--- a/biology/Zoologie/Cyrtopodion_kachhense/Cyrtopodion_kachhense.xlsx
+++ b/biology/Zoologie/Cyrtopodion_kachhense/Cyrtopodion_kachhense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtopodion kachhense est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtopodion kachhense est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran, au Pakistan et en Inde au Gujarat[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran, au Pakistan et en Inde au Gujarat. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 septembre 2012) :
 Cyrtopodion kachhense ingoldbyi (Procter, 1923)
 Cyrtopodion kachhense kachhense (Stoliczka, 1872)</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de kachh et du suffixe latin -ense, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Kachh, actuellement district du Kutch.
-La sous-espèce est nommée en l'honneur de Christopher Martin Ingoldby[3].
+La sous-espèce est nommée en l'honneur de Christopher Martin Ingoldby.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Stoliczka, 1872 : Notes on the Reptilian and Amphibian Fauna of Kachh. Proceedings of the Asiatic Society of Bengal, vol. 1872, p. 71-85 (texte intégral).
 Procter, 1923 : Notes on a Collection of Reptilia from Waziristan and the Adjoining Portion of the N. W. Frontier Province. Journal of the Bombay Natural History Society, vol. 29, p. 117-130.</t>
